--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -1,37 +1,849 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="271">
+  <si>
+    <t>提交时间</t>
+  </si>
+  <si>
+    <t>微信头像</t>
+  </si>
+  <si>
+    <t>微信用户</t>
+  </si>
+  <si>
+    <t>微信城市</t>
+  </si>
+  <si>
+    <t>幼儿姓名</t>
+  </si>
+  <si>
+    <t>出生年月日</t>
+  </si>
+  <si>
+    <t>家庭电话</t>
+  </si>
+  <si>
+    <t>是否独子</t>
+  </si>
+  <si>
+    <t>是否留守儿童</t>
+  </si>
+  <si>
+    <t>出生所在地</t>
+  </si>
+  <si>
+    <t>户口所在地</t>
+  </si>
+  <si>
+    <t>是否港澳台侨</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>家庭住址</t>
+  </si>
+  <si>
+    <t>单项选择</t>
+  </si>
+  <si>
+    <t>户口性质</t>
+  </si>
+  <si>
+    <t>家庭成员（人数）</t>
+  </si>
+  <si>
+    <t>父亲姓名</t>
+  </si>
+  <si>
+    <t>父亲工作单位</t>
+  </si>
+  <si>
+    <t>父亲职务</t>
+  </si>
+  <si>
+    <t>父亲联系电话</t>
+  </si>
+  <si>
+    <t>母亲姓名</t>
+  </si>
+  <si>
+    <t>母亲工作单位</t>
+  </si>
+  <si>
+    <t>母亲职务</t>
+  </si>
+  <si>
+    <t>母亲联系电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>籍贯</t>
+  </si>
+  <si>
+    <t>2021-06-27 17:42:59</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/Q0j4TwGTfTLERLpErfNmo5Hk3ibWPxfmQdqohuzbrhcnjCw20gGqGLTBzRnh5WV5X5xANpBOf2zdOtHIbcO5YxA/132</t>
+  </si>
+  <si>
+    <t>菜毅</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>试试</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>gg@rjjj.com</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>天津市天津市河西区啧啧啧</t>
+  </si>
+  <si>
+    <t>护照</t>
+  </si>
+  <si>
+    <t>非农业</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>是是是</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>12345667806</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>jj</t>
+  </si>
+  <si>
+    <t>cvf</t>
+  </si>
+  <si>
+    <t>12345566890</t>
+  </si>
+  <si>
+    <t>sse</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:25:28</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/guzbZrvrSA9gjg57Wibq0v72wWVc9qXiaJHWFtF1R5WM9QgzVWgxibxAXvwNiaB4Cnp9tLRicibpC84RNBNcCgiadMXCA/132</t>
+  </si>
+  <si>
+    <t>田幺小 ら</t>
+  </si>
+  <si>
+    <t>李偲佟</t>
+  </si>
+  <si>
+    <t>2016-12-24</t>
+  </si>
+  <si>
+    <t>15989811575</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>汕头市</t>
+  </si>
+  <si>
+    <t>汕头市金龙派出所</t>
+  </si>
+  <si>
+    <t>be249969959@qq.com</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金厦街道龙北街13号104</t>
+  </si>
+  <si>
+    <t>居民身份证</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>李利生</t>
+  </si>
+  <si>
+    <t>自由职业</t>
+  </si>
+  <si>
+    <t>13415096757</t>
+  </si>
+  <si>
+    <t>许洁如</t>
+  </si>
+  <si>
+    <t>广东臻和实业有限公司</t>
+  </si>
+  <si>
+    <t>商务</t>
+  </si>
+  <si>
+    <t>440511201612246642</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:25:40</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:25:53</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/7DvYDMUMRsIZj5T62m2UrhjhTOYcsv7GALgVyxbdrnniam3fP4kYoqQDdtCvl30uomhRvQsa8uHDhQiaXNAMiaEUw/132</t>
+  </si>
+  <si>
+    <t>?++</t>
+  </si>
+  <si>
+    <t>黄思哲</t>
+  </si>
+  <si>
+    <t>2018-01-28</t>
+  </si>
+  <si>
+    <t>18125149412</t>
+  </si>
+  <si>
+    <t>广东省汕头市</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区石炮台街道</t>
+  </si>
+  <si>
+    <t>407359927@189.cn</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区桃园</t>
+  </si>
+  <si>
+    <t>黄岳</t>
+  </si>
+  <si>
+    <t>13353099882</t>
+  </si>
+  <si>
+    <t>马嘉佳</t>
+  </si>
+  <si>
+    <t>广东省潮州市</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:26:54</t>
+  </si>
+  <si>
+    <t>萧锦妍</t>
+  </si>
+  <si>
+    <t>2018-06-19</t>
+  </si>
+  <si>
+    <t>13631532674</t>
+  </si>
+  <si>
+    <t>广东省深圳市福田区</t>
+  </si>
+  <si>
+    <t>江西省赣州市于都县</t>
+  </si>
+  <si>
+    <t>669796514@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市龙湖区珠池路合信紫云心语</t>
+  </si>
+  <si>
+    <t>无证件</t>
+  </si>
+  <si>
+    <t>萧根长</t>
+  </si>
+  <si>
+    <t>汕头市前海人寿</t>
+  </si>
+  <si>
+    <t>个险职工</t>
+  </si>
+  <si>
+    <t>13316814383</t>
+  </si>
+  <si>
+    <t>王伟佳</t>
+  </si>
+  <si>
+    <t>极兔速递</t>
+  </si>
+  <si>
+    <t>结算主管</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:27:13</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/zo1wmUbNJ6JnXxJPfjcGwxfB2UAUHiczVVumyNGYiaoYqYroUAb7FG3OzKZ2MXLx8bXsUmFibZhKpraqBWSsotKNw/132</t>
+  </si>
+  <si>
+    <t>密儿</t>
+  </si>
+  <si>
+    <t>普陀</t>
+  </si>
+  <si>
+    <t>李安怡</t>
+  </si>
+  <si>
+    <t>2017-12-10</t>
+  </si>
+  <si>
+    <t>15817961339</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>汕头金龙派出所</t>
+  </si>
+  <si>
+    <t>184076150@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区东兴四横小</t>
+  </si>
+  <si>
+    <t>李泽坤</t>
+  </si>
+  <si>
+    <t>上海融欢包装材料有限公司</t>
+  </si>
+  <si>
+    <t>法人</t>
+  </si>
+  <si>
+    <t>13016663999</t>
+  </si>
+  <si>
+    <t>陈吉</t>
+  </si>
+  <si>
+    <t>股东</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:27:19</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:31:16</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/HZTVbx5OG9d6P8nedvdW8m7VmEfoicfjoCgusfbfSmlk6EUxlnWA8Z3jeb37yu6XOBv253Vs48IVGNmeNGPIicMA/132</t>
+  </si>
+  <si>
+    <t>肖颖芬</t>
+  </si>
+  <si>
+    <t>罗恩漫</t>
+  </si>
+  <si>
+    <t>2017-01-03</t>
+  </si>
+  <si>
+    <t>13715945868</t>
+  </si>
+  <si>
+    <t>广东汕头</t>
+  </si>
+  <si>
+    <t>金平分局</t>
+  </si>
+  <si>
+    <t>Fen-1212@163.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金环路52号</t>
+  </si>
+  <si>
+    <t>罗驰</t>
+  </si>
+  <si>
+    <t>广厦学校</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>15876181181</t>
+  </si>
+  <si>
+    <t>金平区人民医院</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>440511201701036620</t>
+  </si>
+  <si>
+    <t>广东省普宁</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:31:23</t>
+  </si>
+  <si>
+    <t>440511201712104721</t>
+  </si>
+  <si>
+    <t>2021-06-28 09:31:27</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:10:45</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/cRvia2BRic2NHdibtz0Cc1F1Wyf7TArDSU2v7bD6mL8soHdx5FmFrAVCfDpeJA8qAz4sVEs6pSLTKbgmdFqw8ufXw/132</t>
+  </si>
+  <si>
+    <t>佳佳</t>
+  </si>
+  <si>
+    <t>刘一朝</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>13825889294</t>
+  </si>
+  <si>
+    <t>广东省汕头市龙北街10号604</t>
+  </si>
+  <si>
+    <t>13825889294@139.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区龙北街10号604</t>
+  </si>
+  <si>
+    <t>刘德坚</t>
+  </si>
+  <si>
+    <t>古尚里空间装饰设计</t>
+  </si>
+  <si>
+    <t>设计师及监理</t>
+  </si>
+  <si>
+    <t>15915518494</t>
+  </si>
+  <si>
+    <t>吴啟凤</t>
+  </si>
+  <si>
+    <t>中国移动通信有限公司汕头分公司</t>
+  </si>
+  <si>
+    <t>高级客服代表</t>
+  </si>
+  <si>
+    <t>报名时再提供</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:10:52</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:23:30</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/fjScUMh41QibV25eTzg0Nm2qPamDaZ9eGwsZ6EcqN6P4f6S0BOSbWqtLKMcXBEJY1yfSeWjt7ibWIS9TCl85S47A/132</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>朱善与</t>
+  </si>
+  <si>
+    <t>2017-03-15</t>
+  </si>
+  <si>
+    <t>13509889328</t>
+  </si>
+  <si>
+    <t>汕头金平</t>
+  </si>
+  <si>
+    <t>达濠</t>
+  </si>
+  <si>
+    <t>13509889328@139.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区东方园北区5栋407</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>一家四口</t>
+  </si>
+  <si>
+    <t>朱贤旭</t>
+  </si>
+  <si>
+    <t>通信公司</t>
+  </si>
+  <si>
+    <t>客户经理</t>
+  </si>
+  <si>
+    <t>13829466111</t>
+  </si>
+  <si>
+    <t>高少花</t>
+  </si>
+  <si>
+    <t>职员</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:23:39</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:40:49</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/K9JyRbZYB9tXTHLYCDaxsEPbKibSaZVROpGg6JRF19iavsDx9CJfYpwfUFHtdSYcajXvdQyA7riaaB5ee4BDBcKyg/132</t>
+  </si>
+  <si>
+    <t>-璇</t>
+  </si>
+  <si>
+    <t>陈桐灏</t>
+  </si>
+  <si>
+    <t>2017-01-06</t>
+  </si>
+  <si>
+    <t>13068900429</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区</t>
+  </si>
+  <si>
+    <t>广东省潮州市饶平县</t>
+  </si>
+  <si>
+    <t>564321092@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金砂路62号三座</t>
+  </si>
+  <si>
+    <t>陈泳帆</t>
+  </si>
+  <si>
+    <t>汕头超声印制板公司</t>
+  </si>
+  <si>
+    <t>员工</t>
+  </si>
+  <si>
+    <t>18666054588</t>
+  </si>
+  <si>
+    <t>陈丽璇</t>
+  </si>
+  <si>
+    <t>445122201701063735</t>
+  </si>
+  <si>
+    <t>广东省潮州市饶平县钱东镇灰寨村</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:47:24</t>
+  </si>
+  <si>
+    <t>陈思潼</t>
+  </si>
+  <si>
+    <t>2019-01-26</t>
+  </si>
+  <si>
+    <t>汕头市龙湖区</t>
+  </si>
+  <si>
+    <t>445122201901263731</t>
+  </si>
+  <si>
+    <t>广东省饶平县</t>
+  </si>
+  <si>
+    <t>2021-06-28 10:58:15</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/FVlIQVIQhaxEwcJg67USaFryfyvb1qa1v3MXSkccTFPOSiaUCycuXRP3xo3DbQOMX7T8yiaxyicPfaicgqqsFfS8GA/132</t>
+  </si>
+  <si>
+    <t>郑基炜</t>
+  </si>
+  <si>
+    <t>郑瀚杰</t>
+  </si>
+  <si>
+    <t>2017-01-24</t>
+  </si>
+  <si>
+    <t>88307297</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金龙派出所</t>
+  </si>
+  <si>
+    <t>178925710@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区东兴三横3号702</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>汕头市庄园植物科技有限公司</t>
+  </si>
+  <si>
+    <t>13729210304</t>
+  </si>
+  <si>
+    <t>黄婉玲</t>
+  </si>
+  <si>
+    <t>潮宏基</t>
+  </si>
+  <si>
+    <t>13592880686</t>
+  </si>
+  <si>
+    <t>广东省汕头市潮阳区</t>
+  </si>
+  <si>
+    <t>2021-06-28 12:15:05</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/Ml34flGic60cz7dfzialwwbQ6pZXleMSmQOwoXib5K3zAjiazENjnnDQFtjsiaXqw0aMc1LlYAcmaORQf8X8VW6ZHlA/132</t>
+  </si>
+  <si>
+    <t>盛达  仪℡¹⁹⁸⁶⁰⁷⁹⁷¹³³</t>
+  </si>
+  <si>
+    <t>陈希恩</t>
+  </si>
+  <si>
+    <t>2017-12-07</t>
+  </si>
+  <si>
+    <t>18823965533</t>
+  </si>
+  <si>
+    <t>广东省汕头市广厦街道嘉顿小镇西区28栋602</t>
+  </si>
+  <si>
+    <t>16242224@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区嘉顿小镇西区28栋602</t>
+  </si>
+  <si>
+    <t>陈奕彬</t>
+  </si>
+  <si>
+    <t>深圳市凯撒文化</t>
+  </si>
+  <si>
+    <t>财务经理</t>
+  </si>
+  <si>
+    <t>杨霓</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>13822820086</t>
+  </si>
+  <si>
+    <t>440511201712077428</t>
+  </si>
+  <si>
+    <t>广东省揭西县</t>
+  </si>
+  <si>
+    <t>2021-06-28 12:15:09</t>
+  </si>
+  <si>
+    <t>2021-06-28 12:33:47</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/yaBho4hxSLV0QA2bQdgB7QThjOmFsyPicOO3R1QTq670jib9YRR7AHpCP3udoX1eyTcJzqa6omcDIYKAuEXRdGTA/132</t>
+  </si>
+  <si>
+    <t>一闪</t>
+  </si>
+  <si>
+    <t>翁可孜</t>
+  </si>
+  <si>
+    <t>2018-05-12</t>
+  </si>
+  <si>
+    <t>075486861708</t>
+  </si>
+  <si>
+    <t>9065910@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金厦街道东兴三横三号302</t>
+  </si>
+  <si>
+    <t>翁旭锋</t>
+  </si>
+  <si>
+    <t>13715950088</t>
+  </si>
+  <si>
+    <t>林闻芸</t>
+  </si>
+  <si>
+    <t>汕头市金平区玉兰中学</t>
+  </si>
+  <si>
+    <t>15817947920</t>
+  </si>
+  <si>
+    <t>440511201805126620</t>
+  </si>
+  <si>
+    <t>2021-06-28 12:33:52</t>
+  </si>
+  <si>
+    <t>2021-06-28 12:37:57</t>
+  </si>
+  <si>
+    <t>https://thirdwx.qlogo.cn/mmopen/vi_32/Zn6eCC569kt1NicQchoR23eFnQibrrlgsZYby7X4zYtNY0YrFLIrV08iatX0qbqjUaN9sVlCxwHjY1WicFmGbTKD7A/132</t>
+  </si>
+  <si>
+    <t>萍</t>
+  </si>
+  <si>
+    <t>黄奕恺</t>
+  </si>
+  <si>
+    <t>2016-12-11</t>
+  </si>
+  <si>
+    <t>13750428818</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金东派出所</t>
+  </si>
+  <si>
+    <t>4987926@qq.com</t>
+  </si>
+  <si>
+    <t>广东省汕头市金平区金园路百合园14-204房</t>
+  </si>
+  <si>
+    <t>黄国辉</t>
+  </si>
+  <si>
+    <t>电子厂</t>
+  </si>
+  <si>
+    <t>业务员</t>
+  </si>
+  <si>
+    <t>13750420995</t>
+  </si>
+  <si>
+    <t>陈萍</t>
+  </si>
+  <si>
+    <t>澄海区汇璟幼儿园</t>
+  </si>
+  <si>
+    <t>幼师</t>
+  </si>
+  <si>
+    <t>440511201612116610</t>
+  </si>
+  <si>
+    <t>2021-06-28 12:38:12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,43 +851,33 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,45 +1162,2026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3"/>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>86</v>
+      </c>
+      <c r="W5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5"/>
+      <c r="AB5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V6" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" t="s">
+        <v>102</v>
+      </c>
+      <c r="X6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6"/>
+      <c r="AB6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" t="s">
+        <v>116</v>
+      </c>
+      <c r="T7" t="s">
+        <v>117</v>
+      </c>
+      <c r="U7" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA7"/>
+      <c r="AB7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" t="s">
+        <v>116</v>
+      </c>
+      <c r="T8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V8" t="s">
+        <v>119</v>
+      </c>
+      <c r="W8" t="s">
+        <v>120</v>
+      </c>
+      <c r="X8" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8"/>
+      <c r="AB8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" t="s">
+        <v>132</v>
+      </c>
+      <c r="P9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" t="s">
+        <v>135</v>
+      </c>
+      <c r="V9" t="s">
+        <v>136</v>
+      </c>
+      <c r="W9" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" t="s">
+        <v>117</v>
+      </c>
+      <c r="U10" t="s">
+        <v>118</v>
+      </c>
+      <c r="V10" t="s">
+        <v>119</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" t="s">
+        <v>133</v>
+      </c>
+      <c r="T11" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" t="s">
+        <v>135</v>
+      </c>
+      <c r="V11" t="s">
+        <v>136</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" t="s">
+        <v>153</v>
+      </c>
+      <c r="T12" t="s">
+        <v>154</v>
+      </c>
+      <c r="U12" t="s">
+        <v>155</v>
+      </c>
+      <c r="V12" t="s">
+        <v>156</v>
+      </c>
+      <c r="W12" t="s">
+        <v>157</v>
+      </c>
+      <c r="X12" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" t="s">
+        <v>154</v>
+      </c>
+      <c r="U13" t="s">
+        <v>155</v>
+      </c>
+      <c r="V13" t="s">
+        <v>156</v>
+      </c>
+      <c r="W13" t="s">
+        <v>157</v>
+      </c>
+      <c r="X13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>170</v>
+      </c>
+      <c r="N14" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>172</v>
+      </c>
+      <c r="R14" t="s">
+        <v>173</v>
+      </c>
+      <c r="S14" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" t="s">
+        <v>175</v>
+      </c>
+      <c r="U14" t="s">
+        <v>176</v>
+      </c>
+      <c r="V14" t="s">
+        <v>177</v>
+      </c>
+      <c r="W14" t="s">
+        <v>178</v>
+      </c>
+      <c r="X14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA14"/>
+      <c r="AB14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>172</v>
+      </c>
+      <c r="R15" t="s">
+        <v>173</v>
+      </c>
+      <c r="S15" t="s">
+        <v>174</v>
+      </c>
+      <c r="T15" t="s">
+        <v>175</v>
+      </c>
+      <c r="U15" t="s">
+        <v>176</v>
+      </c>
+      <c r="V15" t="s">
+        <v>177</v>
+      </c>
+      <c r="W15" t="s">
+        <v>178</v>
+      </c>
+      <c r="X15" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA15"/>
+      <c r="AB15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" t="s">
+        <v>191</v>
+      </c>
+      <c r="T16" t="s">
+        <v>192</v>
+      </c>
+      <c r="U16" t="s">
+        <v>193</v>
+      </c>
+      <c r="V16" t="s">
+        <v>194</v>
+      </c>
+      <c r="W16" t="s">
+        <v>195</v>
+      </c>
+      <c r="X16" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O17" t="s">
+        <v>190</v>
+      </c>
+      <c r="P17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>172</v>
+      </c>
+      <c r="R17" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" t="s">
+        <v>191</v>
+      </c>
+      <c r="T17" t="s">
+        <v>192</v>
+      </c>
+      <c r="U17" t="s">
+        <v>193</v>
+      </c>
+      <c r="V17" t="s">
+        <v>194</v>
+      </c>
+      <c r="W17" t="s">
+        <v>195</v>
+      </c>
+      <c r="X17" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
+      </c>
+      <c r="F18" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>187</v>
+      </c>
+      <c r="K18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>211</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" t="s">
+        <v>212</v>
+      </c>
+      <c r="P18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" t="s">
+        <v>213</v>
+      </c>
+      <c r="S18" t="s">
+        <v>206</v>
+      </c>
+      <c r="T18" t="s">
+        <v>214</v>
+      </c>
+      <c r="U18"/>
+      <c r="V18" t="s">
+        <v>215</v>
+      </c>
+      <c r="W18" t="s">
+        <v>216</v>
+      </c>
+      <c r="X18" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y18"/>
+      <c r="Z18" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA18"/>
+      <c r="AB18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" t="s">
+        <v>228</v>
+      </c>
+      <c r="P19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>42</v>
+      </c>
+      <c r="R19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" t="s">
+        <v>229</v>
+      </c>
+      <c r="T19" t="s">
+        <v>230</v>
+      </c>
+      <c r="U19" t="s">
+        <v>231</v>
+      </c>
+      <c r="V19" t="s">
+        <v>225</v>
+      </c>
+      <c r="W19" t="s">
+        <v>232</v>
+      </c>
+      <c r="X19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" t="s">
+        <v>229</v>
+      </c>
+      <c r="T20" t="s">
+        <v>230</v>
+      </c>
+      <c r="U20" t="s">
+        <v>231</v>
+      </c>
+      <c r="V20" t="s">
+        <v>225</v>
+      </c>
+      <c r="W20" t="s">
+        <v>232</v>
+      </c>
+      <c r="X20" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>244</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>245</v>
+      </c>
+      <c r="P21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
+        <v>246</v>
+      </c>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21" t="s">
+        <v>247</v>
+      </c>
+      <c r="W21" t="s">
+        <v>248</v>
+      </c>
+      <c r="X21" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y21"/>
+      <c r="Z21" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" t="s">
+        <v>244</v>
+      </c>
+      <c r="N22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>42</v>
+      </c>
+      <c r="R22" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" t="s">
+        <v>246</v>
+      </c>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22" t="s">
+        <v>247</v>
+      </c>
+      <c r="W22" t="s">
+        <v>248</v>
+      </c>
+      <c r="X22" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y22"/>
+      <c r="Z22" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>260</v>
+      </c>
+      <c r="N23" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" t="s">
+        <v>261</v>
+      </c>
+      <c r="P23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>42</v>
+      </c>
+      <c r="R23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" t="s">
+        <v>262</v>
+      </c>
+      <c r="T23" t="s">
+        <v>263</v>
+      </c>
+      <c r="U23" t="s">
+        <v>264</v>
+      </c>
+      <c r="V23" t="s">
+        <v>265</v>
+      </c>
+      <c r="W23" t="s">
+        <v>266</v>
+      </c>
+      <c r="X23" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" t="s">
+        <v>257</v>
+      </c>
+      <c r="G24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="s">
+        <v>260</v>
+      </c>
+      <c r="N24" t="s">
+        <v>83</v>
+      </c>
+      <c r="O24" t="s">
+        <v>261</v>
+      </c>
+      <c r="P24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>42</v>
+      </c>
+      <c r="R24" t="s">
+        <v>65</v>
+      </c>
+      <c r="S24" t="s">
+        <v>262</v>
+      </c>
+      <c r="T24" t="s">
+        <v>263</v>
+      </c>
+      <c r="U24" t="s">
+        <v>264</v>
+      </c>
+      <c r="V24" t="s">
+        <v>265</v>
+      </c>
+      <c r="W24" t="s">
+        <v>266</v>
+      </c>
+      <c r="X24" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>